--- a/tests/integration/models/3a - lca_it_pt/sets.xlsx
+++ b/tests/integration/models/3a - lca_it_pt/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\3a - lca_it_pt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE1C0F6-892A-4511-AAC0-78F0BA4D663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D30EF-68FA-4647-BFE8-F84F50153808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -22,29 +22,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>t_Names</t>
   </si>
   <si>
-    <t>t_Technology_Assumption</t>
-  </si>
-  <si>
     <t>t_Mix</t>
   </si>
   <si>
     <t>p_Names</t>
   </si>
   <si>
-    <t>p_Technology_Assumption</t>
-  </si>
-  <si>
     <t>p_Mix</t>
   </si>
   <si>
     <t>e_Names</t>
   </si>
   <si>
+    <t>air emissions</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>electricity chp</t>
+  </si>
+  <si>
+    <t>electricity pv</t>
+  </si>
+  <si>
+    <t>fuel A</t>
+  </si>
+  <si>
+    <t>fuel B</t>
+  </si>
+  <si>
+    <t>product A</t>
+  </si>
+  <si>
+    <t>product B</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
     <t>boiler</t>
   </si>
   <si>
@@ -58,39 +79,6 @@
   </si>
   <si>
     <t>industry</t>
-  </si>
-  <si>
-    <t>product-technology</t>
-  </si>
-  <si>
-    <t>industry-technology</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>electricity chp</t>
-  </si>
-  <si>
-    <t>electricity pv</t>
-  </si>
-  <si>
-    <t>fuel A</t>
-  </si>
-  <si>
-    <t>fuel B</t>
-  </si>
-  <si>
-    <t>product A</t>
-  </si>
-  <si>
-    <t>product B</t>
-  </si>
-  <si>
-    <t>air emissions</t>
   </si>
 </sst>
 </file>
@@ -112,7 +100,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,74 +445,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -535,89 +499,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -629,20 +565,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
